--- a/target/test-classes/Test Data/ReadData.xlsx
+++ b/target/test-classes/Test Data/ReadData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81b1a651ac0cba04/Documents/Njabulo/VPC_PublicWEb_TC1/src/test/resources/Test Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QXZ2DT1\Documents\Njabs\InvestecAssessment-main\src\test\resources\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{7E5AAE9D-0471-4099-8D05-0E6675A60B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C467EA-9FD9-4AC2-B820-853EAA492C98}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF8482-80CB-4904-ADFA-DDA879D55A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Test</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Seach Page</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>Please complete all required fields before sending.</t>
+  </si>
+  <si>
+    <t>Sign in txt</t>
+  </si>
+  <si>
+    <t>Thank you</t>
   </si>
 </sst>
 </file>
@@ -380,20 +392,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16E8386-24A0-4563-A964-6E4BD305065F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
     <col min="4" max="4" width="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -406,8 +419,14 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -419,6 +438,12 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -427,5 +452,6 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{2C466BB2-06AE-4713-8989-B68F5308F7A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>